--- a/Term Paper/data/use_data/unemploy.xlsx
+++ b/Term Paper/data/use_data/unemploy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukea\Documents\GitHub\BC_Project\Term Paper\data\use_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA87E0C-0FE7-4FDE-B52D-805DC57DAB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97BC0D-D7D6-417F-B56A-22E6FAD3E489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3630" windowWidth="22060" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="22060" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -19622,7 +19622,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A0FF6E9-8745-4229-8D7D-9EC571EFFCDF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Industry">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A0FF6E9-8745-4229-8D7D-9EC571EFFCDF}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Industry">
   <location ref="A3:E19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
